--- a/pred_ohlcv/54_21/2019-10-26 ORBS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 ORBS ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>94308.45870000005</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>94264.56870000005</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>100404.5687</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1025109.6012</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1061679.2562</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1061679.2562</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1061679.2562</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>1061679.2562</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>1061669.2562</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>1963642.454768297</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1963642.454768297</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>1836955.720968297</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>2427545.887768297</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>2427375.748868297</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>2666904.558668297</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>2536651.372568297</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>2536662.372568297</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>2536662.372568297</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>2422644.064268297</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>2422644.064268297</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>2422269.024768297</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>2416869.575768297</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>2406891.575768297</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-51872.14043170326</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-952936.5099317033</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-894967.0195317033</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-894967.0195317033</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-894843.0526317033</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-658039.6005317033</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-658026.6005317033</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-658025.6005317033</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-878115.1105317033</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-1035685.518531703</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-885944.4511349821</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 ORBS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 ORBS ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>94308.45870000005</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>94264.56870000005</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>100404.5687</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1025109.6012</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1061679.2562</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1061679.2562</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1061679.2562</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>1061679.2562</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>1061669.2562</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1638149.1992</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>2245859.0811</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>2245859.0811</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>2245859.0811</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>2108339.7015</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>2108229.407399999</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1876921.420999999</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1876921.420999999</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1876921.420999999</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1876921.420999999</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1884613.728599999</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1883838.131599999</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1883849.131599999</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1883849.131599999</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>1883707.459899999</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1883707.459899999</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1883707.459899999</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1883707.459899999</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1883707.459899999</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1896268.089599999</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1851487.094399999</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1503212.764399999</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>1486549.201399999</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>1483759.201399999</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1483771.201399999</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1576047.526269696</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1576047.526269696</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>1557370.634869696</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>1557381.634869696</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>1504074.459769696</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>1512474.459769696</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>1512474.459769696</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>1290984.976769696</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>1246632.846669696</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1246643.846669696</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1075032.937369696</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>1697648.848269696</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>1697648.848269696</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>1697648.848269696</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>1697648.848269696</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>2624741.223299999</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>2223570.496299999</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>2210834.811299999</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>2210834.811299999</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>2048238.408099999</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>2048238.408099999</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>2048938.408099999</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>2048938.408099999</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>2036408.408099999</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>2036408.408099999</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>1370996.851284148</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>1588249.803668297</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1588249.803668297</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>1963642.454768297</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1963642.454768297</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>1836955.720968297</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>1836955.720968297</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>1774989.412368297</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>1742884.673168297</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>2079427.705868297</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>2075414.548168297</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>2075414.548168297</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>2427545.887768297</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>2427545.887768297</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>2427375.748868297</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>2452340.748868297</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>2454346.609968297</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>2454346.609968297</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>2702141.685668297</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>2666904.558668297</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>2536651.372568297</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>2536662.372568297</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>2422644.064268297</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>2422644.064268297</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>2471098.652668296</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>2471098.652668296</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>2471098.652668296</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>2470918.735968296</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>2422269.024768297</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>2425614.291868296</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>2416869.575768297</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>2416880.575768297</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>2416880.575768297</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>2416891.575768297</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>2416891.575768297</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>2406891.575768297</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>2406912.575768297</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-51872.14043170326</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-952936.5099317033</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-894967.0195317033</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-894967.0195317033</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-894843.0526317033</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-658039.6005317033</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-658026.6005317033</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-658025.6005317033</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-1035687.518531703</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-1035685.518531703</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-1035685.518531703</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-885944.4511349821</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-885974.4511349821</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
